--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H2">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I2">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J2">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N2">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O2">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P2">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q2">
-        <v>1141.349147589264</v>
+        <v>1426.408736868019</v>
       </c>
       <c r="R2">
-        <v>1141.349147589264</v>
+        <v>12837.67863181217</v>
       </c>
       <c r="S2">
-        <v>0.3922427721116239</v>
+        <v>0.2976859757749043</v>
       </c>
       <c r="T2">
-        <v>0.3922427721116239</v>
+        <v>0.2976859757749042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H3">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I3">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J3">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N3">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O3">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P3">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q3">
-        <v>89.73784753671285</v>
+        <v>104.1186340548502</v>
       </c>
       <c r="R3">
-        <v>89.73784753671285</v>
+        <v>937.0677064936522</v>
       </c>
       <c r="S3">
-        <v>0.03083983735868837</v>
+        <v>0.02172915544742357</v>
       </c>
       <c r="T3">
-        <v>0.03083983735868837</v>
+        <v>0.02172915544742356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H4">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I4">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J4">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N4">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O4">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P4">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q4">
-        <v>32.34536117208496</v>
+        <v>41.22804569795778</v>
       </c>
       <c r="R4">
-        <v>32.34536117208496</v>
+        <v>371.05241128162</v>
       </c>
       <c r="S4">
-        <v>0.01111599737721628</v>
+        <v>0.008604133370521056</v>
       </c>
       <c r="T4">
-        <v>0.01111599737721628</v>
+        <v>0.008604133370521055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H5">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I5">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J5">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N5">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O5">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P5">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q5">
-        <v>62.47258248042233</v>
+        <v>74.86400712590623</v>
       </c>
       <c r="R5">
-        <v>62.47258248042233</v>
+        <v>673.776064133156</v>
       </c>
       <c r="S5">
-        <v>0.02146969574108912</v>
+        <v>0.01562382817468458</v>
       </c>
       <c r="T5">
-        <v>0.02146969574108912</v>
+        <v>0.01562382817468457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H6">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I6">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J6">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N6">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O6">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P6">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q6">
-        <v>11.76826144066139</v>
+        <v>13.73405985964889</v>
       </c>
       <c r="R6">
-        <v>11.76826144066139</v>
+        <v>123.60653873684</v>
       </c>
       <c r="S6">
-        <v>0.004044350057271447</v>
+        <v>0.002866245070573215</v>
       </c>
       <c r="T6">
-        <v>0.004044350057271447</v>
+        <v>0.002866245070573215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.9313440387235</v>
+        <v>46.32737733333334</v>
       </c>
       <c r="H7">
-        <v>39.9313440387235</v>
+        <v>138.982132</v>
       </c>
       <c r="I7">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824507</v>
       </c>
       <c r="J7">
-        <v>0.6481598044417823</v>
+        <v>0.5696534342824506</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N7">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O7">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P7">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q7">
-        <v>548.3440648503756</v>
+        <v>1069.229707312148</v>
       </c>
       <c r="R7">
-        <v>548.3440648503756</v>
+        <v>9623.067365809331</v>
       </c>
       <c r="S7">
-        <v>0.1884471517958932</v>
+        <v>0.223144096444344</v>
       </c>
       <c r="T7">
-        <v>0.1884471517958932</v>
+        <v>0.223144096444344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H8">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I8">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J8">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N8">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O8">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P8">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q8">
-        <v>62.41264435597225</v>
+        <v>73.79897541469133</v>
       </c>
       <c r="R8">
-        <v>62.41264435597225</v>
+        <v>664.1907787322219</v>
       </c>
       <c r="S8">
-        <v>0.02144909705212604</v>
+        <v>0.01540156018375768</v>
       </c>
       <c r="T8">
-        <v>0.02144909705212604</v>
+        <v>0.01540156018375768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H9">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I9">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J9">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N9">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O9">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P9">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q9">
-        <v>4.907154287896191</v>
+        <v>5.386849025964779</v>
       </c>
       <c r="R9">
-        <v>4.907154287896191</v>
+        <v>48.48164123368301</v>
       </c>
       <c r="S9">
-        <v>0.001686421552186166</v>
+        <v>0.001124214516638083</v>
       </c>
       <c r="T9">
-        <v>0.001686421552186166</v>
+        <v>0.001124214516638083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H10">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I10">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J10">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N10">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O10">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P10">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q10">
-        <v>1.768748439215816</v>
+        <v>2.133040447817222</v>
       </c>
       <c r="R10">
-        <v>1.768748439215816</v>
+        <v>19.197364030355</v>
       </c>
       <c r="S10">
-        <v>0.0006078585088809205</v>
+        <v>0.0004451572755155952</v>
       </c>
       <c r="T10">
-        <v>0.0006078585088809205</v>
+        <v>0.0004451572755155952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H11">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I11">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J11">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N11">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O11">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P11">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q11">
-        <v>3.416201852505258</v>
+        <v>3.873284619288778</v>
       </c>
       <c r="R11">
-        <v>3.416201852505258</v>
+        <v>34.859561573599</v>
       </c>
       <c r="S11">
-        <v>0.00117403205456438</v>
+        <v>0.0008083394903193124</v>
       </c>
       <c r="T11">
-        <v>0.00117403205456438</v>
+        <v>0.0008083394903193124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H12">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I12">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J12">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N12">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O12">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P12">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q12">
-        <v>0.6435264069154238</v>
+        <v>0.7105673989011111</v>
       </c>
       <c r="R12">
-        <v>0.6435264069154238</v>
+        <v>6.39510659011</v>
       </c>
       <c r="S12">
-        <v>0.0002211580762194395</v>
+        <v>0.0001482926625647027</v>
       </c>
       <c r="T12">
-        <v>0.0002211580762194395</v>
+        <v>0.0001482926625647027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.18357439474927</v>
+        <v>2.396867666666667</v>
       </c>
       <c r="H13">
-        <v>2.18357439474927</v>
+        <v>7.190603</v>
       </c>
       <c r="I13">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="J13">
-        <v>0.03544346394432091</v>
+        <v>0.02947250581471647</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N13">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O13">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P13">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q13">
-        <v>29.98521808729705</v>
+        <v>55.31938696326699</v>
       </c>
       <c r="R13">
-        <v>29.98521808729705</v>
+        <v>497.874482669403</v>
       </c>
       <c r="S13">
-        <v>0.01030489670034396</v>
+        <v>0.0115449416859211</v>
       </c>
       <c r="T13">
-        <v>0.01030489670034396</v>
+        <v>0.0115449416859211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>19.4923329960011</v>
+        <v>0.050696</v>
       </c>
       <c r="H14">
-        <v>19.4923329960011</v>
+        <v>0.152088</v>
       </c>
       <c r="I14">
-        <v>0.3163967316138967</v>
+        <v>0.0006233711504234901</v>
       </c>
       <c r="J14">
-        <v>0.3163967316138967</v>
+        <v>0.00062337115042349</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N14">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O14">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P14">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q14">
-        <v>557.1452247622151</v>
+        <v>1.560917571568</v>
       </c>
       <c r="R14">
-        <v>557.1452247622151</v>
+        <v>14.048258144112</v>
       </c>
       <c r="S14">
-        <v>0.1914718102616303</v>
+        <v>0.0003257574483290675</v>
       </c>
       <c r="T14">
-        <v>0.1914718102616303</v>
+        <v>0.0003257574483290674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>19.4923329960011</v>
+        <v>0.050696</v>
       </c>
       <c r="H15">
-        <v>19.4923329960011</v>
+        <v>0.152088</v>
       </c>
       <c r="I15">
-        <v>0.3163967316138967</v>
+        <v>0.0006233711504234901</v>
       </c>
       <c r="J15">
-        <v>0.3163967316138967</v>
+        <v>0.00062337115042349</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N15">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O15">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P15">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q15">
-        <v>43.80518734440027</v>
+        <v>0.1139369110853333</v>
       </c>
       <c r="R15">
-        <v>43.80518734440027</v>
+        <v>1.025432199768</v>
       </c>
       <c r="S15">
-        <v>0.01505434875307757</v>
+        <v>2.377819181596491E-05</v>
       </c>
       <c r="T15">
-        <v>0.01505434875307757</v>
+        <v>2.377819181596491E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>19.4923329960011</v>
+        <v>0.050696</v>
       </c>
       <c r="H16">
-        <v>19.4923329960011</v>
+        <v>0.152088</v>
       </c>
       <c r="I16">
-        <v>0.3163967316138967</v>
+        <v>0.0006233711504234901</v>
       </c>
       <c r="J16">
-        <v>0.3163967316138967</v>
+        <v>0.00062337115042349</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N16">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O16">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P16">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q16">
-        <v>15.78926444927045</v>
+        <v>0.04511580678666666</v>
       </c>
       <c r="R16">
-        <v>15.78926444927045</v>
+        <v>0.40604226108</v>
       </c>
       <c r="S16">
-        <v>0.005426231640218566</v>
+        <v>9.415494043909229E-06</v>
       </c>
       <c r="T16">
-        <v>0.005426231640218566</v>
+        <v>9.415494043909228E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>19.4923329960011</v>
+        <v>0.050696</v>
       </c>
       <c r="H17">
-        <v>19.4923329960011</v>
+        <v>0.152088</v>
       </c>
       <c r="I17">
-        <v>0.3163967316138967</v>
+        <v>0.0006233711504234901</v>
       </c>
       <c r="J17">
-        <v>0.3163967316138967</v>
+        <v>0.00062337115042349</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N17">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O17">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P17">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q17">
-        <v>30.49575240061126</v>
+        <v>0.08192360378933332</v>
       </c>
       <c r="R17">
-        <v>30.49575240061126</v>
+        <v>0.7373124341039999</v>
       </c>
       <c r="S17">
-        <v>0.01048034993017766</v>
+        <v>1.709713864104076E-05</v>
       </c>
       <c r="T17">
-        <v>0.01048034993017766</v>
+        <v>1.709713864104076E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>19.4923329960011</v>
+        <v>0.050696</v>
       </c>
       <c r="H18">
-        <v>19.4923329960011</v>
+        <v>0.152088</v>
       </c>
       <c r="I18">
-        <v>0.3163967316138967</v>
+        <v>0.0006233711504234901</v>
       </c>
       <c r="J18">
-        <v>0.3163967316138967</v>
+        <v>0.00062337115042349</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N18">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O18">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P18">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q18">
-        <v>5.74463185018063</v>
+        <v>0.01502916717333333</v>
       </c>
       <c r="R18">
-        <v>5.74463185018063</v>
+        <v>0.13526250456</v>
       </c>
       <c r="S18">
-        <v>0.001974234025087708</v>
+        <v>3.136528948148091E-06</v>
       </c>
       <c r="T18">
-        <v>0.001974234025087708</v>
+        <v>3.13652894814809E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.050696</v>
+      </c>
+      <c r="H19">
+        <v>0.152088</v>
+      </c>
+      <c r="I19">
+        <v>0.0006233711504234901</v>
+      </c>
+      <c r="J19">
+        <v>0.00062337115042349</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.079867</v>
+      </c>
+      <c r="N19">
+        <v>69.23960099999999</v>
+      </c>
+      <c r="O19">
+        <v>0.3917190400605971</v>
+      </c>
+      <c r="P19">
+        <v>0.3917190400605971</v>
+      </c>
+      <c r="Q19">
+        <v>1.170056937432</v>
+      </c>
+      <c r="R19">
+        <v>10.530512436888</v>
+      </c>
+      <c r="S19">
+        <v>0.0002441863486453596</v>
+      </c>
+      <c r="T19">
+        <v>0.0002441863486453596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.107048</v>
+      </c>
+      <c r="H20">
+        <v>0.321144</v>
+      </c>
+      <c r="I20">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J20">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>30.789758</v>
+      </c>
+      <c r="N20">
+        <v>92.36927399999999</v>
+      </c>
+      <c r="O20">
+        <v>0.5225738279799484</v>
+      </c>
+      <c r="P20">
+        <v>0.5225738279799484</v>
+      </c>
+      <c r="Q20">
+        <v>3.295982014383999</v>
+      </c>
+      <c r="R20">
+        <v>29.663838129456</v>
+      </c>
+      <c r="S20">
+        <v>0.0006878586738348196</v>
+      </c>
+      <c r="T20">
+        <v>0.0006878586738348196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.107048</v>
+      </c>
+      <c r="H21">
+        <v>0.321144</v>
+      </c>
+      <c r="I21">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J21">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.247453666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.742361000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.03814451759567488</v>
+      </c>
+      <c r="P21">
+        <v>0.03814451759567488</v>
+      </c>
+      <c r="Q21">
+        <v>0.2405854201093333</v>
+      </c>
+      <c r="R21">
+        <v>2.165268780984</v>
+      </c>
+      <c r="S21">
+        <v>5.020924486183154E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.020924486183154E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.107048</v>
+      </c>
+      <c r="H22">
+        <v>0.321144</v>
+      </c>
+      <c r="I22">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J22">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8899283333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.669785</v>
+      </c>
+      <c r="O22">
+        <v>0.01510415430279821</v>
+      </c>
+      <c r="P22">
+        <v>0.01510415430279821</v>
+      </c>
+      <c r="Q22">
+        <v>0.09526504822666666</v>
+      </c>
+      <c r="R22">
+        <v>0.85738543404</v>
+      </c>
+      <c r="S22">
+        <v>1.988144639443733E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.988144639443733E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.107048</v>
+      </c>
+      <c r="H23">
+        <v>0.321144</v>
+      </c>
+      <c r="I23">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J23">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.615977666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.847932999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.02742690069860586</v>
+      </c>
+      <c r="P23">
+        <v>0.02742690069860585</v>
+      </c>
+      <c r="Q23">
+        <v>0.1729871772613333</v>
+      </c>
+      <c r="R23">
+        <v>1.556884595352</v>
+      </c>
+      <c r="S23">
+        <v>3.610175353570559E-05</v>
+      </c>
+      <c r="T23">
+        <v>3.610175353570559E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.107048</v>
+      </c>
+      <c r="H24">
+        <v>0.321144</v>
+      </c>
+      <c r="I24">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J24">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2964566666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.88937</v>
+      </c>
+      <c r="O24">
+        <v>0.005031559362375489</v>
+      </c>
+      <c r="P24">
+        <v>0.005031559362375489</v>
+      </c>
+      <c r="Q24">
+        <v>0.03173509325333333</v>
+      </c>
+      <c r="R24">
+        <v>0.28561583928</v>
+      </c>
+      <c r="S24">
+        <v>6.622990982352785E-06</v>
+      </c>
+      <c r="T24">
+        <v>6.622990982352785E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.107048</v>
+      </c>
+      <c r="H25">
+        <v>0.321144</v>
+      </c>
+      <c r="I25">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="J25">
+        <v>0.001316289942215042</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.079867</v>
+      </c>
+      <c r="N25">
+        <v>69.23960099999999</v>
+      </c>
+      <c r="O25">
+        <v>0.3917190400605971</v>
+      </c>
+      <c r="P25">
+        <v>0.3917190400605971</v>
+      </c>
+      <c r="Q25">
+        <v>2.470653602615999</v>
+      </c>
+      <c r="R25">
+        <v>22.235882423544</v>
+      </c>
+      <c r="S25">
+        <v>0.000515615832605895</v>
+      </c>
+      <c r="T25">
+        <v>0.000515615832605895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H26">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I26">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J26">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.789758</v>
+      </c>
+      <c r="N26">
+        <v>92.36927399999999</v>
+      </c>
+      <c r="O26">
+        <v>0.5225738279799484</v>
+      </c>
+      <c r="P26">
+        <v>0.5225738279799484</v>
+      </c>
+      <c r="Q26">
+        <v>998.9293097422166</v>
+      </c>
+      <c r="R26">
+        <v>8990.363787679951</v>
+      </c>
+      <c r="S26">
+        <v>0.2084726758991226</v>
+      </c>
+      <c r="T26">
+        <v>0.2084726758991226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H27">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I27">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J27">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.247453666666667</v>
+      </c>
+      <c r="N27">
+        <v>6.742361000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.03814451759567488</v>
+      </c>
+      <c r="P27">
+        <v>0.03814451759567488</v>
+      </c>
+      <c r="Q27">
+        <v>72.91539413596391</v>
+      </c>
+      <c r="R27">
+        <v>656.2385472236751</v>
+      </c>
+      <c r="S27">
+        <v>0.01521716019493544</v>
+      </c>
+      <c r="T27">
+        <v>0.01521716019493544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H28">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I28">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J28">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.8899283333333333</v>
+      </c>
+      <c r="N28">
+        <v>2.669785</v>
+      </c>
+      <c r="O28">
+        <v>0.01510415430279821</v>
+      </c>
+      <c r="P28">
+        <v>0.01510415430279821</v>
+      </c>
+      <c r="Q28">
+        <v>28.87244179498611</v>
+      </c>
+      <c r="R28">
+        <v>259.851976154875</v>
+      </c>
+      <c r="S28">
+        <v>0.006025566716323215</v>
+      </c>
+      <c r="T28">
+        <v>0.006025566716323215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>19.4923329960011</v>
-      </c>
-      <c r="H19">
-        <v>19.4923329960011</v>
-      </c>
-      <c r="I19">
-        <v>0.3163967316138967</v>
-      </c>
-      <c r="J19">
-        <v>0.3163967316138967</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>13.7321715071403</v>
-      </c>
-      <c r="N19">
-        <v>13.7321715071403</v>
-      </c>
-      <c r="O19">
-        <v>0.2907418054999422</v>
-      </c>
-      <c r="P19">
-        <v>0.2907418054999422</v>
-      </c>
-      <c r="Q19">
-        <v>267.672059775377</v>
-      </c>
-      <c r="R19">
-        <v>267.672059775377</v>
-      </c>
-      <c r="S19">
-        <v>0.09198975700370496</v>
-      </c>
-      <c r="T19">
-        <v>0.09198975700370496</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H29">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I29">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J29">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.615977666666667</v>
+      </c>
+      <c r="N29">
+        <v>4.847932999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.02742690069860586</v>
+      </c>
+      <c r="P29">
+        <v>0.02742690069860585</v>
+      </c>
+      <c r="Q29">
+        <v>52.42806569386389</v>
+      </c>
+      <c r="R29">
+        <v>471.852591244775</v>
+      </c>
+      <c r="S29">
+        <v>0.01094153414142523</v>
+      </c>
+      <c r="T29">
+        <v>0.01094153414142522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H30">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I30">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J30">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.2964566666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.88937</v>
+      </c>
+      <c r="O30">
+        <v>0.005031559362375489</v>
+      </c>
+      <c r="P30">
+        <v>0.005031559362375489</v>
+      </c>
+      <c r="Q30">
+        <v>9.618109158305556</v>
+      </c>
+      <c r="R30">
+        <v>86.56298242475002</v>
+      </c>
+      <c r="S30">
+        <v>0.00200726210930707</v>
+      </c>
+      <c r="T30">
+        <v>0.00200726210930707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>32.44355833333334</v>
+      </c>
+      <c r="H31">
+        <v>97.33067500000001</v>
+      </c>
+      <c r="I31">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="J31">
+        <v>0.3989343988101943</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.079867</v>
+      </c>
+      <c r="N31">
+        <v>69.23960099999999</v>
+      </c>
+      <c r="O31">
+        <v>0.3917190400605971</v>
+      </c>
+      <c r="P31">
+        <v>0.3917190400605971</v>
+      </c>
+      <c r="Q31">
+        <v>748.7930113400749</v>
+      </c>
+      <c r="R31">
+        <v>6739.137102060676</v>
+      </c>
+      <c r="S31">
+        <v>0.1562701997490807</v>
+      </c>
+      <c r="T31">
+        <v>0.1562701997490807</v>
       </c>
     </row>
   </sheetData>
